--- a/org.eclipse.scout.rt.ui.html/org.eclipse.scout.rt.ui.json/docs/project_mgmt/Scout Html UI Planung.xlsx
+++ b/org.eclipse.scout.rt.ui.html/org.eclipse.scout.rt.ui.json/docs/project_mgmt/Scout Html UI Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="223">
   <si>
     <t>Java Backend</t>
   </si>
@@ -391,9 +391,6 @@
   <si>
     <t>- Transformation des Modelles analog heute? Oder besser alles via Javascript?
 - Eigenständige Widgets erzeugen? Eigene JS/CSS?</t>
-  </si>
-  <si>
-    <t>Neuer Rich-Client</t>
   </si>
   <si>
     <t>Fileupload via D&amp;D</t>
@@ -423,9 +420,6 @@
 - Automatisierte GUI-Tests (ev. Selenium)
 - Automatischer Build
 - Lasttests via Jmeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung ClientSyncJob / WaitFor </t>
   </si>
   <si>
     <t>Rechtschreibeprüfung im Javascript</t>
@@ -441,12 +435,6 @@
 - Session-Timeouts</t>
   </si>
   <si>
-    <t>Caching</t>
-  </si>
-  <si>
-    <t>- Caching der statischen Resourcen (siehe heutiges web.xml)</t>
-  </si>
-  <si>
     <t>Session-Handling</t>
   </si>
   <si>
@@ -463,10 +451,6 @@
     <t>Open-Sourceifizierung</t>
   </si>
   <si>
-    <t>- Projekte nach Eclipse schieben
-- Wiki anpassen, Tutorials schreiben</t>
-  </si>
-  <si>
     <t>- z.B. Cross Site Request Forgery möglich? 
 -&gt;  Compass Security Review von Rap prüfen</t>
   </si>
@@ -478,9 +462,6 @@
   </si>
   <si>
     <t>Keystroke-Handling</t>
-  </si>
-  <si>
-    <t>Resourcen Registrierung</t>
   </si>
   <si>
     <t>Portlet-Support</t>
@@ -503,10 +484,6 @@
 - Ev. Evaluierung Tauglichkeit von Modernizer, Twitter Bootstrap und terrifically.org</t>
   </si>
   <si>
-    <t>Ausbau waitfor -&gt; Vereinfachung Request-Abarbeitung, weniger Threads, Voraussetzung für zuverlässige Last-Tests und DynaTrace
--&gt; waitfor Kann nicht ausgebaut werden, Task beschränkt sich auf Einbau des neuen ClientJob-Mechanismus</t>
-  </si>
-  <si>
     <t>Connection-Failure-Handling</t>
   </si>
   <si>
@@ -514,12 +491,6 @@
 - Auto-Retry, ev. mit Gui-Anzeige à la Gmail
 - Idempotenz garantieren (letzte Antwort speichern, Request-Nr hochzählen)
 - Eventuell nicht alles nötig, wenn Web-Sockets verwendet wird</t>
-  </si>
-  <si>
-    <t>- Applikations-Icons (crm.client)
--  ev. mit unterschiedlichen Auflösungen für unterschiedliche Geräte (Mobile)
-- Icons als svg (wof?)
-- File-Downloads (Excel-Export)</t>
   </si>
   <si>
     <t>440 loc</t>
@@ -738,6 +709,35 @@
   </si>
   <si>
     <t>Prüfen, ob und wie wir das im neuen UI umsetzen wollen</t>
+  </si>
+  <si>
+    <t>- Applikations-Icons (crm.client)
+-  ev. mit unterschiedlichen Auflösungen für unterschiedliche Geräte (Mobile)
+- Icons als svg (wof?)
+- File-Downloads (Excel-Export)
+- Anlieferung der statischen Resourcen (Resource Servlet)
+- Caching der statischen Resourcen (siehe heutiges web.xml)</t>
+  </si>
+  <si>
+    <t>Resource-Handling</t>
+  </si>
+  <si>
+    <t>Model-Synchronisierung</t>
+  </si>
+  <si>
+    <t>- Synchronisation ins Modell (ClientSyncJobs)
+- Einbau des neuen ClientJob-Mechanismus</t>
+  </si>
+  <si>
+    <t>Html based Rich-Client</t>
+  </si>
+  <si>
+    <t>- Projekte nach Eclipse schieben
+- Wiki anpassen, Tutorials schreiben
+- Lizenzen prüfen</t>
+  </si>
+  <si>
+    <t>- ViewButton</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,12 +777,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -876,52 +870,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1359,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,13 +1369,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1445,7 +1398,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8">
@@ -1464,15 +1417,15 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E67" si="0">B4*C4</f>
+        <f t="shared" ref="E4:E66" si="0">B4*C4</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8">
@@ -1481,7 +1434,7 @@
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -1496,10 +1449,10 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8">
@@ -1523,7 +1476,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H6" s="9"/>
       <c r="J6" s="8"/>
@@ -1533,7 +1486,7 @@
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
@@ -1548,7 +1501,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H7" s="9"/>
       <c r="J7" s="8"/>
@@ -1556,12 +1509,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
@@ -1573,20 +1526,20 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="H8" s="9"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>149</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
@@ -1598,65 +1551,52 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="H9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="8">
         <v>2</v>
       </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
       <c r="C10" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1665,45 +1605,58 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="16">
         <v>0</v>
@@ -1714,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>65</v>
+      <c r="G15" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -1740,20 +1693,20 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="12" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="H16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B17" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
@@ -1764,21 +1717,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="G17" s="12"/>
       <c r="H17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" s="16">
         <v>0</v>
@@ -1789,19 +1740,21 @@
         <v>0</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="16">
         <v>0</v>
@@ -1813,20 +1766,20 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="16">
         <v>0</v>
@@ -1838,20 +1791,20 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="16">
         <v>0</v>
@@ -1863,17 +1816,17 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -1888,7 +1841,7 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" s="8"/>
       <c r="J22" s="8"/>
@@ -1898,7 +1851,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1913,7 +1866,7 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="8"/>
       <c r="J23" s="8"/>
@@ -1923,7 +1876,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1938,7 +1891,7 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="8"/>
       <c r="J24" s="8"/>
@@ -1948,7 +1901,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -1963,7 +1916,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="8"/>
       <c r="J25" s="8"/>
@@ -1973,50 +1926,50 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B26" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10</v>
+      </c>
       <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="12" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="H26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
       </c>
       <c r="C27" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="8">
-        <v>10</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="12"/>
       <c r="H27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8">
@@ -2025,82 +1978,82 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B28" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B29" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="16">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B31" s="8">
         <v>0</v>
@@ -2115,7 +2068,7 @@
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="12" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="H31" s="8"/>
       <c r="J31" s="8"/>
@@ -2125,63 +2078,63 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B32" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="16">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="12" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="H32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B33" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" s="16">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8">
@@ -2190,17 +2143,17 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
@@ -2214,9 +2167,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="G35" s="12"/>
       <c r="H35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8">
@@ -2225,30 +2176,32 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8">
-        <f t="shared" si="0"/>
+        <f>B36*C36</f>
         <v>0</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
@@ -2258,12 +2211,12 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8">
-        <f>B37*C37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" s="8"/>
       <c r="J37" s="8"/>
@@ -2273,7 +2226,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -2288,7 +2241,7 @@
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" s="8"/>
       <c r="J38" s="8"/>
@@ -2298,7 +2251,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
@@ -2313,7 +2266,7 @@
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" s="8"/>
       <c r="J39" s="8"/>
@@ -2323,7 +2276,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="8">
         <v>1</v>
@@ -2338,7 +2291,7 @@
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" s="8"/>
       <c r="J40" s="8"/>
@@ -2348,7 +2301,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
@@ -2363,7 +2316,7 @@
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" s="8"/>
       <c r="J41" s="8"/>
@@ -2373,22 +2326,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="8">
         <v>1</v>
       </c>
       <c r="C42" s="16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" s="8"/>
       <c r="J42" s="8"/>
@@ -2398,32 +2351,32 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="8">
         <v>0</v>
@@ -2438,7 +2391,7 @@
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" s="8"/>
       <c r="J44" s="8"/>
@@ -2448,13 +2401,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8">
@@ -2463,17 +2416,17 @@
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8">
         <v>1</v>
@@ -2488,7 +2441,7 @@
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H46" s="8"/>
       <c r="J46" s="8"/>
@@ -2498,7 +2451,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8">
         <v>1</v>
@@ -2513,7 +2466,7 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H47" s="8"/>
       <c r="J47" s="8"/>
@@ -2523,7 +2476,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B48" s="8">
         <v>1</v>
@@ -2538,7 +2491,7 @@
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H48" s="8"/>
       <c r="J48" s="8"/>
@@ -2548,7 +2501,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B49" s="8">
         <v>1</v>
@@ -2563,7 +2516,7 @@
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" s="8"/>
       <c r="J49" s="8"/>
@@ -2573,7 +2526,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B50" s="8">
         <v>1</v>
@@ -2588,7 +2541,7 @@
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H50" s="8"/>
       <c r="J50" s="8"/>
@@ -2598,13 +2551,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8">
@@ -2613,23 +2566,23 @@
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8">
@@ -2638,20 +2591,20 @@
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B53" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -2663,20 +2616,20 @@
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="16">
         <v>0</v>
@@ -2688,17 +2641,17 @@
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -2713,7 +2666,7 @@
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H55" s="8"/>
       <c r="J55" s="8"/>
@@ -2723,10 +2676,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B56" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="16">
         <v>0</v>
@@ -2737,21 +2690,19 @@
         <v>0</v>
       </c>
       <c r="F56" s="8"/>
-      <c r="G56" s="12" t="s">
-        <v>100</v>
-      </c>
+      <c r="G56" s="12"/>
       <c r="H56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="B57" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="16">
         <v>0</v>
@@ -2762,22 +2713,24 @@
         <v>0</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="H57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B58" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8">
@@ -2786,69 +2739,69 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B59" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B60" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C60" s="16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B61" s="8">
         <v>1</v>
@@ -2863,7 +2816,7 @@
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H61" s="8"/>
       <c r="J61" s="8"/>
@@ -2873,7 +2826,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" s="8">
         <v>1</v>
@@ -2888,7 +2841,7 @@
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H62" s="8"/>
       <c r="J62" s="8"/>
@@ -2898,7 +2851,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8">
         <v>1</v>
@@ -2913,7 +2866,7 @@
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="12" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H63" s="8"/>
       <c r="J63" s="8"/>
@@ -2923,10 +2876,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="16">
         <v>0</v>
@@ -2938,20 +2891,20 @@
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="12" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="16">
         <v>0</v>
@@ -2963,71 +2916,71 @@
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C66" s="16">
-        <v>0</v>
-      </c>
-      <c r="D66" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="8">
+        <v>10</v>
+      </c>
       <c r="E66" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H66" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B67" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C67" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D67" s="8">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D67" s="8"/>
       <c r="E67" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="E67:E130" si="1">B67*C67</f>
+        <v>0</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>202</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B68" s="8">
         <v>1</v>
@@ -3037,12 +2990,12 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8">
-        <f t="shared" ref="E68:E131" si="1">B68*C68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H68" s="8"/>
       <c r="J68" s="8"/>
@@ -3052,13 +3005,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8">
@@ -3067,23 +3020,23 @@
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8">
@@ -3092,132 +3045,134 @@
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="8">
-        <v>1</v>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="17"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="A73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="17"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="F73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="8">
+        <v>10</v>
+      </c>
+      <c r="C74" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="8">
         <v>5</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="8">
-        <v>10</v>
-      </c>
       <c r="C75" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>203</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H75" s="9"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>215</v>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B76" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H76" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>119</v>
+      <c r="K76" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B77" s="8">
         <v>8</v>
@@ -3232,101 +3187,99 @@
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="9" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="B78" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" s="16">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="9" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B79" s="8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C79" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>206</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H79" s="9"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B80" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="9" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="H80" s="9"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B81" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" s="16">
         <v>0</v>
@@ -3338,76 +3291,77 @@
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="9" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="J81" s="8"/>
+      <c r="J81" s="8">
+        <v>10</v>
+      </c>
       <c r="K81" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B82" s="8">
         <v>10</v>
       </c>
       <c r="C82" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H82" s="9"/>
+        <v>147</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="J82" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K82" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B83" s="8">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C83" s="16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J83" s="8">
-        <v>15</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="J83" s="8"/>
       <c r="K83" s="8">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="8">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C84" s="16">
         <v>0</v>
@@ -3419,18 +3373,19 @@
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="9" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="H84" s="9"/>
-      <c r="J84" s="8"/>
+      <c r="J84" s="8">
+        <v>4</v>
+      </c>
       <c r="K84" s="8">
-        <v>80</v>
-      </c>
-      <c r="M84" s="13"/>
-    </row>
-    <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B85" s="8">
         <v>5</v>
@@ -3445,22 +3400,22 @@
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H85" s="9"/>
       <c r="J85" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K85" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>134</v>
+    <row r="86" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B86" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C86" s="16">
         <v>0</v>
@@ -3472,22 +3427,22 @@
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="9" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H86" s="9"/>
       <c r="J86" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K86" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B87" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C87" s="16">
         <v>0</v>
@@ -3499,73 +3454,75 @@
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="J87" s="8">
+      <c r="J87" s="1"/>
+      <c r="K87" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="8">
         <v>8</v>
       </c>
-      <c r="K87" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B88" s="8">
-        <v>20</v>
-      </c>
       <c r="C88" s="16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H88" s="9"/>
-      <c r="J88" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="K88" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B89" s="8">
         <v>8</v>
       </c>
       <c r="C89" s="16">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="K89" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B90" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90" s="16">
         <v>0.3</v>
@@ -3573,55 +3530,51 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="F90" s="8"/>
-      <c r="G90" s="9" t="s">
-        <v>180</v>
-      </c>
+      <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>183</v>
+        <v>203</v>
+      </c>
+      <c r="J90" s="8">
+        <v>5</v>
       </c>
       <c r="K90" s="8">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B91" s="8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C91" s="16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J91" s="8">
+      <c r="H91" s="9"/>
+      <c r="J91" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K91" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="8">
         <v>5</v>
-      </c>
-      <c r="K91" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B92" s="8">
-        <v>15</v>
       </c>
       <c r="C92" s="16">
         <v>0</v>
@@ -3632,75 +3585,75 @@
         <v>0</v>
       </c>
       <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
+      <c r="G92" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H92" s="9"/>
       <c r="J92" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K92" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="8">
         <v>5</v>
       </c>
-      <c r="C93" s="16">
-        <v>0</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H93" s="9"/>
-      <c r="J93" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K93" s="8">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="K94" s="1"/>
+      <c r="A94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="A95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2</v>
+      </c>
+      <c r="C95" s="16">
+        <v>0</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="12"/>
+      <c r="J95" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K95" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B96" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C96" s="16">
         <v>0</v>
@@ -3711,21 +3664,21 @@
         <v>0</v>
       </c>
       <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="G96" s="12"/>
       <c r="H96" s="12"/>
-      <c r="J96" s="8" t="s">
-        <v>185</v>
+      <c r="J96" s="8">
+        <v>20</v>
       </c>
       <c r="K96" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B97" s="8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C97" s="16">
         <v>0</v>
@@ -3739,18 +3692,18 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="J97" s="8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K97" s="8">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B98" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C98" s="16">
         <v>0</v>
@@ -3763,19 +3716,19 @@
       <c r="F98" s="8"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
-      <c r="J98" s="8">
-        <v>3</v>
+      <c r="J98" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K98" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B99" s="8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C99" s="16">
         <v>0</v>
@@ -3788,19 +3741,19 @@
       <c r="F99" s="8"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-      <c r="J99" s="8" t="s">
-        <v>185</v>
+      <c r="J99" s="8">
+        <v>20</v>
       </c>
       <c r="K99" s="8">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B100" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C100" s="16">
         <v>0</v>
@@ -3813,19 +3766,19 @@
       <c r="F100" s="8"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="J100" s="8">
-        <v>20</v>
+      <c r="J100" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K100" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B101" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C101" s="16">
         <v>0</v>
@@ -3839,18 +3792,18 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="J101" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K101" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B102" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C102" s="16">
         <v>0</v>
@@ -3863,19 +3816,19 @@
       <c r="F102" s="8"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-      <c r="J102" s="8" t="s">
-        <v>186</v>
+      <c r="J102" s="8">
+        <v>4</v>
       </c>
       <c r="K102" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B103" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="16">
         <v>0</v>
@@ -3888,19 +3841,19 @@
       <c r="F103" s="8"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
-      <c r="J103" s="8">
-        <v>4</v>
+      <c r="J103" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K103" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B104" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="16">
         <v>0</v>
@@ -3911,21 +3864,23 @@
         <v>0</v>
       </c>
       <c r="F104" s="8"/>
-      <c r="G104" s="12"/>
+      <c r="G104" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="H104" s="12"/>
       <c r="J104" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K104" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B105" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C105" s="16">
         <v>0</v>
@@ -3936,23 +3891,21 @@
         <v>0</v>
       </c>
       <c r="F105" s="8"/>
-      <c r="G105" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="G105" s="12"/>
       <c r="H105" s="12"/>
-      <c r="J105" s="8" t="s">
-        <v>185</v>
+      <c r="J105" s="8">
+        <v>8</v>
       </c>
       <c r="K105" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B106" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C106" s="16">
         <v>0</v>
@@ -3966,148 +3919,148 @@
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="J106" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K106" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B107" s="8">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C107" s="16">
-        <v>0</v>
-      </c>
-      <c r="D107" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="8">
+        <v>10</v>
+      </c>
       <c r="E107" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F107" s="8"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="H107" s="12"/>
-      <c r="J107" s="8">
-        <v>6</v>
+      <c r="J107" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="K107" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B108" s="8">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C108" s="16">
         <v>0.5</v>
       </c>
-      <c r="D108" s="8">
-        <v>10</v>
-      </c>
+      <c r="D108" s="8"/>
       <c r="E108" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F108" s="8"/>
+        <v>12.5</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="G108" s="12" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="H108" s="12"/>
       <c r="J108" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K108" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B109" s="8">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C109" s="16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8">
         <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="12"/>
       <c r="H109" s="12"/>
-      <c r="J109" s="8" t="s">
-        <v>185</v>
+      <c r="J109" s="8">
+        <v>10</v>
       </c>
       <c r="K109" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B110" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C110" s="16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="J110" s="8">
+        <v>20</v>
+      </c>
+      <c r="K110" s="8">
         <v>10</v>
-      </c>
-      <c r="K110" s="8">
-        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B111" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C111" s="16">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
-      <c r="J111" s="8">
-        <v>20</v>
+      <c r="J111" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K111" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B112" s="8">
         <v>0</v>
@@ -4120,11 +4073,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="12"/>
+      <c r="F112" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H112" s="12"/>
       <c r="J112" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K112" s="8">
         <v>0</v>
@@ -4132,42 +4089,38 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B113" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C113" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>167</v>
-      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="12"/>
-      <c r="J113" s="8" t="s">
-        <v>185</v>
+      <c r="J113" s="8">
+        <v>5</v>
       </c>
       <c r="K113" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B114" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8">
@@ -4175,24 +4128,26 @@
         <v>0</v>
       </c>
       <c r="F114" s="8"/>
-      <c r="G114" s="12"/>
+      <c r="G114" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="H114" s="12"/>
-      <c r="J114" s="8">
+      <c r="J114" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K114" s="8">
         <v>5</v>
-      </c>
-      <c r="K114" s="8">
-        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B115" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C115" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8">
@@ -4200,23 +4155,21 @@
         <v>0</v>
       </c>
       <c r="F115" s="8"/>
-      <c r="G115" s="12" t="s">
-        <v>172</v>
-      </c>
+      <c r="G115" s="12"/>
       <c r="H115" s="12"/>
-      <c r="J115" s="8" t="s">
-        <v>185</v>
+      <c r="J115" s="8">
+        <v>10</v>
       </c>
       <c r="K115" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B116" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C116" s="16">
         <v>0</v>
@@ -4227,10 +4180,12 @@
         <v>0</v>
       </c>
       <c r="F116" s="8"/>
-      <c r="G116" s="12"/>
+      <c r="G116" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="H116" s="12"/>
       <c r="J116" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K116" s="8">
         <v>3</v>
@@ -4238,10 +4193,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B117" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C117" s="16">
         <v>0</v>
@@ -4252,12 +4207,10 @@
         <v>0</v>
       </c>
       <c r="F117" s="8"/>
-      <c r="G117" s="12" t="s">
-        <v>168</v>
-      </c>
+      <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="J117" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K117" s="8">
         <v>3</v>
@@ -4265,7 +4218,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B118" s="8">
         <v>3</v>
@@ -4290,10 +4243,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B119" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" s="16">
         <v>0</v>
@@ -4304,21 +4257,23 @@
         <v>0</v>
       </c>
       <c r="F119" s="8"/>
-      <c r="G119" s="12"/>
+      <c r="G119" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="H119" s="12"/>
       <c r="J119" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K119" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B120" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C120" s="16">
         <v>0</v>
@@ -4329,23 +4284,21 @@
         <v>0</v>
       </c>
       <c r="F120" s="8"/>
-      <c r="G120" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="J120" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K120" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B121" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" s="16">
         <v>0</v>
@@ -4359,7 +4312,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="J121" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K121" s="8">
         <v>3</v>
@@ -4367,10 +4320,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B122" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122" s="16">
         <v>0</v>
@@ -4384,65 +4337,65 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="J122" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K122" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B123" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-      <c r="J123" s="8">
-        <v>0</v>
+      <c r="J123" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K123" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B124" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C124" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="J124" s="8" t="s">
-        <v>185</v>
+      <c r="J124" s="8">
+        <v>0</v>
       </c>
       <c r="K124" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B125" s="8">
         <v>0</v>
@@ -4467,13 +4420,13 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B126" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8">
@@ -4484,18 +4437,18 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="J126" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K126" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B127" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C127" s="16">
         <v>0</v>
@@ -4509,7 +4462,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="J127" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K127" s="8">
         <v>3</v>
@@ -4517,10 +4470,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B128" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C128" s="16">
         <v>0</v>
@@ -4534,7 +4487,7 @@
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="J128" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K128" s="8">
         <v>3</v>
@@ -4542,10 +4495,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B129" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" s="16">
         <v>0</v>
@@ -4558,19 +4511,19 @@
       <c r="F129" s="8"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
-      <c r="J129" s="8">
-        <v>5</v>
+      <c r="J129" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K129" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B130" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="16">
         <v>0</v>
@@ -4584,68 +4537,70 @@
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="J130" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K130" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B131" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" s="16">
         <v>0</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E131:E160" si="2">B131*C131</f>
         <v>0</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
-      <c r="J131" s="8" t="s">
-        <v>185</v>
+      <c r="J131" s="8">
+        <v>4</v>
       </c>
       <c r="K131" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B132" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C132" s="16">
         <v>0</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8">
-        <f t="shared" ref="E132:E161" si="2">B132*C132</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F132" s="8"/>
-      <c r="G132" s="12"/>
+      <c r="G132" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="H132" s="12"/>
-      <c r="J132" s="8">
-        <v>4</v>
+      <c r="J132" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K132" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B133" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C133" s="16">
         <v>0</v>
@@ -4656,23 +4611,21 @@
         <v>0</v>
       </c>
       <c r="F133" s="8"/>
-      <c r="G133" s="12" t="s">
-        <v>172</v>
-      </c>
+      <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="J133" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K133" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B134" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C134" s="16">
         <v>0</v>
@@ -4685,19 +4638,19 @@
       <c r="F134" s="8"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
-      <c r="J134" s="8" t="s">
-        <v>185</v>
+      <c r="J134" s="8">
+        <v>15</v>
       </c>
       <c r="K134" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B135" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C135" s="16">
         <v>0</v>
@@ -4710,19 +4663,19 @@
       <c r="F135" s="8"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
-      <c r="J135" s="8">
-        <v>15</v>
+      <c r="J135" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K135" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B136" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="16">
         <v>0</v>
@@ -4735,19 +4688,19 @@
       <c r="F136" s="8"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
-      <c r="J136" s="8" t="s">
-        <v>185</v>
+      <c r="J136" s="8">
+        <v>0</v>
       </c>
       <c r="K136" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B137" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C137" s="16">
         <v>0</v>
@@ -4764,15 +4717,15 @@
         <v>0</v>
       </c>
       <c r="K137" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="B138" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" s="16">
         <v>0</v>
@@ -4786,18 +4739,18 @@
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="J138" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K138" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B139" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C139" s="16">
         <v>0</v>
@@ -4808,75 +4761,75 @@
         <v>0</v>
       </c>
       <c r="F139" s="8"/>
-      <c r="G139" s="12"/>
+      <c r="G139" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="H139" s="12"/>
       <c r="J139" s="8">
         <v>3</v>
       </c>
       <c r="K139" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="8">
         <v>25</v>
       </c>
-      <c r="B140" s="8">
-        <v>0</v>
-      </c>
       <c r="C140" s="16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F140" s="8"/>
-      <c r="G140" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="J140" s="8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K140" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B141" s="8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C141" s="16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="12"/>
-      <c r="H141" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J141" s="8">
-        <v>15</v>
+      <c r="H141" s="12"/>
+      <c r="J141" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K141" s="8">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B142" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="16">
         <v>0</v>
@@ -4889,19 +4842,19 @@
       <c r="F142" s="8"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
-      <c r="J142" s="8" t="s">
-        <v>185</v>
+      <c r="J142" s="8">
+        <v>5</v>
       </c>
       <c r="K142" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B143" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C143" s="16">
         <v>0</v>
@@ -4915,18 +4868,18 @@
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="J143" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K143" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B144" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C144" s="16">
         <v>0</v>
@@ -4940,7 +4893,7 @@
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="J144" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K144" s="8">
         <v>3</v>
@@ -4948,10 +4901,10 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B145" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C145" s="16">
         <v>0</v>
@@ -4965,18 +4918,18 @@
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="J145" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K145" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B146" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C146" s="16">
         <v>0</v>
@@ -4989,70 +4942,70 @@
       <c r="F146" s="8"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
-      <c r="J146" s="8">
-        <v>0</v>
+      <c r="J146" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K146" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B147" s="8">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C147" s="16">
-        <v>0</v>
-      </c>
-      <c r="D147" s="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="D147" s="8">
+        <v>10</v>
+      </c>
       <c r="E147" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="J147" s="8" t="s">
-        <v>185</v>
+      <c r="H147" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J147" s="8">
+        <v>10</v>
       </c>
       <c r="K147" s="8">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B148" s="8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C148" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="D148" s="8">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D148" s="8"/>
       <c r="E148" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="12"/>
-      <c r="H148" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J148" s="8">
-        <v>10</v>
+      <c r="H148" s="12"/>
+      <c r="J148" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K148" s="8">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B149" s="8">
         <v>2</v>
@@ -5068,8 +5021,8 @@
       <c r="F149" s="8"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
-      <c r="J149" s="8" t="s">
-        <v>185</v>
+      <c r="J149" s="8">
+        <v>5</v>
       </c>
       <c r="K149" s="8">
         <v>2</v>
@@ -5077,10 +5030,10 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="B150" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C150" s="16">
         <v>0</v>
@@ -5094,18 +5047,18 @@
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="J150" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K150" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B151" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C151" s="16">
         <v>0</v>
@@ -5118,131 +5071,131 @@
       <c r="F151" s="8"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
-      <c r="J151" s="8">
-        <v>0</v>
+      <c r="J151" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="K151" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B152" s="8">
-        <v>3</v>
-      </c>
-      <c r="C152" s="16">
-        <v>0</v>
-      </c>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="J152" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K152" s="8">
-        <v>3</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="A154" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="17"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+    </row>
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="8">
+        <v>4</v>
+      </c>
+      <c r="C156" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D156" s="8">
+        <v>10</v>
+      </c>
+      <c r="E156" s="8">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="F156" s="8"/>
+      <c r="G156" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="17"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-    </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="B157" s="8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C157" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="D157" s="8">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D157" s="8"/>
       <c r="E157" s="8">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F157" s="8"/>
-      <c r="G157" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>214</v>
-      </c>
+      <c r="G157" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H157" s="9"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B158" s="8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C158" s="16">
         <v>0</v>
@@ -5254,17 +5207,17 @@
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="9" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H158" s="9"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B159" s="8">
         <v>5</v>
@@ -5279,7 +5232,7 @@
       </c>
       <c r="F159" s="8"/>
       <c r="G159" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H159" s="9"/>
       <c r="J159" s="8"/>
@@ -5287,12 +5240,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B160" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C160" s="16">
         <v>0</v>
@@ -5304,96 +5257,69 @@
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="9" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="H160" s="9"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" s="8">
         <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B161" s="8">
-        <v>10</v>
       </c>
       <c r="C161" s="16">
         <v>0</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E161" si="3">B161*C161</f>
         <v>0</v>
       </c>
       <c r="F161" s="8"/>
       <c r="G161" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H161" s="9"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C162" s="16">
-        <v>0</v>
-      </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8" t="e">
-        <f t="shared" ref="E162" si="3">B162*C162</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J162" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K162" s="8" t="s">
-        <v>185</v>
+        <v>214</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K161" s="8"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163">
+        <f>SUM(B3:B160)</f>
+        <v>826</v>
+      </c>
+      <c r="E163">
+        <f>SUM(E3:E160)</f>
+        <v>114.00000000000001</v>
+      </c>
+      <c r="J163">
+        <f>SUM(J3:J160)</f>
+        <v>287</v>
+      </c>
+      <c r="K163">
+        <f>SUM(K3:K160)</f>
+        <v>775</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>188</v>
-      </c>
-      <c r="B164">
-        <f>SUM(B3:B161)</f>
-        <v>822</v>
-      </c>
-      <c r="E164">
-        <f>SUM(E3:E161)</f>
-        <v>114.00000000000001</v>
-      </c>
-      <c r="J164">
-        <f>SUM(J3:J161)</f>
-        <v>287</v>
-      </c>
-      <c r="K164">
-        <f>SUM(K3:K161)</f>
-        <v>775</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>195</v>
-      </c>
-      <c r="B165" s="19">
-        <f>E164/B164</f>
-        <v>0.13868613138686134</v>
+        <v>187</v>
+      </c>
+      <c r="B164" s="19">
+        <f>E163/B163</f>
+        <v>0.13801452784503634</v>
       </c>
     </row>
   </sheetData>
@@ -5403,67 +5329,59 @@
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C11">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+  <conditionalFormatting sqref="C14:C70">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C71">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="C74:C92">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C93">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="C95:C100 C102:C151">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96:C101 C103:C152">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="C101">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="C156:C160">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157:C161">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C161">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
